--- a/DRL_Automated_Trading/results14/SAP.DE.xlsx
+++ b/DRL_Automated_Trading/results14/SAP.DE.xlsx
@@ -556,28 +556,28 @@
         <v>44109</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>998523.9581610049</v>
+        <v>10171.6112831824</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7589</v>
       </c>
       <c r="F4" t="n">
-        <v>998523.9581610049</v>
+        <v>999187.3175847859</v>
       </c>
       <c r="G4" t="n">
         <v>130.3222699040194</v>
       </c>
       <c r="H4" t="n">
-        <v>663.3594237809621</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>989828.3887168176</v>
       </c>
       <c r="J4" t="n">
-        <v>-1476.041838995065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -591,22 +591,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10126.88388346618</v>
+        <v>144.6286625301109</v>
       </c>
       <c r="E5" t="n">
-        <v>7620</v>
+        <v>7666</v>
       </c>
       <c r="F5" t="n">
-        <v>997861.3674708524</v>
+        <v>993841.8138568744</v>
       </c>
       <c r="G5" t="n">
         <v>129.6239479773473</v>
       </c>
       <c r="H5" t="n">
-        <v>662.5906901524319</v>
+        <v>45.93862639655345</v>
       </c>
       <c r="I5" t="n">
-        <v>988397.0742775388</v>
+        <v>999855.3713374699</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,25 +623,25 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>989259.0238001624</v>
+        <v>985187.9622978836</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>989259.0238001624</v>
+        <v>985187.9622978836</v>
       </c>
       <c r="G6" t="n">
         <v>128.5813600912117</v>
       </c>
       <c r="H6" t="n">
-        <v>657.82397833702</v>
+        <v>661.3728238755375</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-9264.93436084257</v>
+        <v>-14812.03770211642</v>
       </c>
     </row>
     <row r="7">
@@ -655,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10089.66856892315</v>
+        <v>10038.75031991175</v>
       </c>
       <c r="E7" t="n">
-        <v>7550</v>
+        <v>7519</v>
       </c>
       <c r="F7" t="n">
-        <v>988601.9664214508</v>
+        <v>984533.3155587403</v>
       </c>
       <c r="G7" t="n">
         <v>129.6042778612619</v>
       </c>
       <c r="H7" t="n">
-        <v>657.0573787115167</v>
+        <v>654.6467391432972</v>
       </c>
       <c r="I7" t="n">
-        <v>979169.3552312392</v>
+        <v>975149.2119779718</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10089.66856892315</v>
+        <v>10038.75031991175</v>
       </c>
       <c r="E8" t="n">
-        <v>7550</v>
+        <v>7519</v>
       </c>
       <c r="F8" t="n">
-        <v>991052.4204978697</v>
+        <v>986973.7081680904</v>
       </c>
       <c r="G8" t="n">
         <v>129.9288413150923</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>979169.3552312392</v>
+        <v>975149.2119779718</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>185.5389728673397</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E9" t="n">
-        <v>7625</v>
+        <v>7594</v>
       </c>
       <c r="F9" t="n">
-        <v>1002442.443762334</v>
+        <v>998316.7761299164</v>
       </c>
       <c r="G9" t="n">
         <v>131.4435284969793</v>
@@ -734,7 +734,7 @@
         <v>45.86495878236407</v>
       </c>
       <c r="I9" t="n">
-        <v>989073.4848272951</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>185.5389728673397</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E10" t="n">
-        <v>7625</v>
+        <v>7594</v>
       </c>
       <c r="F10" t="n">
-        <v>1003192.499546519</v>
+        <v>999063.7825069787</v>
       </c>
       <c r="G10" t="n">
         <v>131.5418964686756</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>989073.4848272951</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>185.5389728673397</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E11" t="n">
-        <v>7625</v>
+        <v>7594</v>
       </c>
       <c r="F11" t="n">
-        <v>1011067.128151625</v>
+        <v>1006906.396228575</v>
       </c>
       <c r="G11" t="n">
         <v>132.5746346463944</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>989073.4848272951</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -815,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>43.2876323486063</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E12" t="n">
-        <v>7626</v>
+        <v>7594</v>
       </c>
       <c r="F12" t="n">
-        <v>985180.1904282094</v>
+        <v>981137.7206231172</v>
       </c>
       <c r="G12" t="n">
         <v>129.1813405187334</v>
       </c>
       <c r="H12" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>989215.7361678138</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.2876323486063</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E13" t="n">
-        <v>7626</v>
+        <v>7594</v>
       </c>
       <c r="F13" t="n">
-        <v>992605.8122463725</v>
+        <v>988532.1832623947</v>
       </c>
       <c r="G13" t="n">
         <v>130.1550648589069</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>989215.7361678138</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43.2876323486063</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E14" t="n">
-        <v>7626</v>
+        <v>7594</v>
       </c>
       <c r="F14" t="n">
-        <v>995156.0195203571</v>
+        <v>991071.6894305878</v>
       </c>
       <c r="G14" t="n">
         <v>130.4894744148975</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>989215.7361678138</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -908,28 +908,28 @@
         <v>44124</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>970276.420905754</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7594</v>
       </c>
       <c r="F15" t="n">
-        <v>970276.420905754</v>
+        <v>966946.2333114241</v>
       </c>
       <c r="G15" t="n">
         <v>127.3125642069487</v>
       </c>
       <c r="H15" t="n">
-        <v>652.4813687853144</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J15" t="n">
-        <v>-18982.6028944084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>970276.420905754</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>7594</v>
       </c>
       <c r="F16" t="n">
-        <v>970276.420905754</v>
+        <v>944314.5950619939</v>
       </c>
       <c r="G16" t="n">
         <v>124.3323642794493</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>970276.420905754</v>
+        <v>134.620723855938</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7594</v>
       </c>
       <c r="F17" t="n">
-        <v>970276.420905754</v>
+        <v>924073.1165186553</v>
       </c>
       <c r="G17" t="n">
         <v>121.6669075315775</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>985053.3415740277</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1007,25 +1007,25 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="G18" t="n">
         <v>122.6504696160874</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>628.7945997587409</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-54274.46990921837</v>
       </c>
     </row>
     <row r="19">
@@ -1039,13 +1039,13 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="G19" t="n">
         <v>99.21213270720239</v>
@@ -1071,13 +1071,13 @@
         <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>970276.420905754</v>
+        <v>930913.4923886652</v>
       </c>
       <c r="G20" t="n">
         <v>97.41220937392589</v>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9878.112859665236</v>
+        <v>9497.705367698614</v>
       </c>
       <c r="E21" t="n">
-        <v>10322</v>
+        <v>9903</v>
       </c>
       <c r="F21" t="n">
-        <v>969630.6194018286</v>
+        <v>930291.0663720625</v>
       </c>
       <c r="G21" t="n">
         <v>92.98125426682459</v>
       </c>
       <c r="H21" t="n">
-        <v>645.8015039252981</v>
+        <v>622.4260166026183</v>
       </c>
       <c r="I21" t="n">
-        <v>960398.3080460888</v>
+        <v>921415.7870209666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G22" t="n">
         <v>90.91576592847076</v>
       </c>
       <c r="H22" t="n">
-        <v>633.0095215482052</v>
+        <v>610.1532979937876</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-22598.78165396175</v>
+        <v>-21687.11032931448</v>
       </c>
     </row>
     <row r="23">
@@ -1167,13 +1167,13 @@
         <v>-1</v>
       </c>
       <c r="D23" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G23" t="n">
         <v>90.66495939004301</v>
@@ -1199,13 +1199,13 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G24" t="n">
         <v>89.74040972450192</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G25" t="n">
         <v>90.97477682767081</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G26" t="n">
         <v>93.51238153470338</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G27" t="n">
         <v>97.05320938072475</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>947677.6392517922</v>
+        <v>909226.3820593507</v>
       </c>
       <c r="G28" t="n">
         <v>95.77949099435116</v>
@@ -1359,22 +1359,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>9630.018271969577</v>
+        <v>9194.152400720865</v>
       </c>
       <c r="E29" t="n">
-        <v>9450</v>
+        <v>9067</v>
       </c>
       <c r="F29" t="n">
-        <v>947045.2401186842</v>
+        <v>908616.7784837009</v>
       </c>
       <c r="G29" t="n">
         <v>99.19737797319732</v>
       </c>
       <c r="H29" t="n">
-        <v>632.3991331080288</v>
+        <v>609.6035756497881</v>
       </c>
       <c r="I29" t="n">
-        <v>938047.6209798226</v>
+        <v>900032.2296586299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>9630.018271969577</v>
+        <v>9194.152400720865</v>
       </c>
       <c r="E30" t="n">
-        <v>9450</v>
+        <v>9067</v>
       </c>
       <c r="F30" t="n">
-        <v>938633.600000929</v>
+        <v>900546.0545738927</v>
       </c>
       <c r="G30" t="n">
         <v>98.3072573258158</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>938047.6209798226</v>
+        <v>900032.2296586299</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1423,25 +1423,25 @@
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="G31" t="n">
         <v>99.11377480730276</v>
       </c>
       <c r="H31" t="n">
-        <v>631.9251031574067</v>
+        <v>609.1487577066886</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-2054.374153968878</v>
+        <v>-1976.782238522428</v>
       </c>
     </row>
     <row r="32">
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="G32" t="n">
         <v>99.52687168468043</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="G33" t="n">
         <v>99.67440789289782</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>945623.2650978233</v>
+        <v>907249.5998208283</v>
       </c>
       <c r="G34" t="n">
         <v>99.93013290375265</v>
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>9593.200043591343</v>
+        <v>9252.385989420492</v>
       </c>
       <c r="E35" t="n">
-        <v>9573</v>
+        <v>9184</v>
       </c>
       <c r="F35" t="n">
-        <v>944992.075772386</v>
+        <v>906641.2165225084</v>
       </c>
       <c r="G35" t="n">
         <v>97.71219844654703</v>
       </c>
       <c r="H35" t="n">
-        <v>631.1893254372768</v>
+        <v>608.3832983198528</v>
       </c>
       <c r="I35" t="n">
-        <v>936030.065054232</v>
+        <v>897997.2138314078</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>9593.200043591343</v>
+        <v>9252.385989420492</v>
       </c>
       <c r="E36" t="n">
-        <v>9573</v>
+        <v>9184</v>
       </c>
       <c r="F36" t="n">
-        <v>946451.4744232452</v>
+        <v>908041.3123346352</v>
       </c>
       <c r="G36" t="n">
         <v>97.86464790344237</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>936030.065054232</v>
+        <v>897997.2138314078</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9593.200043591343</v>
+        <v>9252.385989420492</v>
       </c>
       <c r="E37" t="n">
-        <v>9573</v>
+        <v>9184</v>
       </c>
       <c r="F37" t="n">
-        <v>946639.8303556185</v>
+        <v>908222.0144011677</v>
       </c>
       <c r="G37" t="n">
         <v>97.88432365110489</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>936030.065054232</v>
+        <v>897997.2138314078</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1647,22 +1647,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>84.27720790757439</v>
+        <v>133.9362603628589</v>
       </c>
       <c r="E38" t="n">
-        <v>9670</v>
+        <v>9277</v>
       </c>
       <c r="F38" t="n">
-        <v>943486.9708603969</v>
+        <v>905195.651773718</v>
       </c>
       <c r="G38" t="n">
         <v>97.55974081204647</v>
       </c>
       <c r="H38" t="n">
-        <v>45.62797691526111</v>
+        <v>45.3938335373122</v>
       </c>
       <c r="I38" t="n">
-        <v>945538.9878899158</v>
+        <v>907115.6635604654</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1679,22 +1679,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>84.27720790757439</v>
+        <v>23.41470626206878</v>
       </c>
       <c r="E39" t="n">
-        <v>9670</v>
+        <v>9278</v>
       </c>
       <c r="F39" t="n">
-        <v>942440.8053625475</v>
+        <v>904178.9336533924</v>
       </c>
       <c r="G39" t="n">
         <v>97.45155410079008</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I39" t="n">
-        <v>945538.9878899158</v>
+        <v>907226.1851145662</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1711,25 +1711,25 @@
         <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="G40" t="n">
         <v>96.73846793017077</v>
       </c>
       <c r="H40" t="n">
-        <v>631.2265909308509</v>
+        <v>608.4737032736747</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-10709.22959609528</v>
+        <v>-10295.15336171549</v>
       </c>
     </row>
     <row r="41">
@@ -1743,13 +1743,13 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="G41" t="n">
         <v>96.62536140257683</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>934914.0355017281</v>
+        <v>896954.4464591128</v>
       </c>
       <c r="G42" t="n">
         <v>98.15479789524383</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>9517.171029817642</v>
+        <v>9158.856988674032</v>
       </c>
       <c r="E43" t="n">
-        <v>9376</v>
+        <v>8995</v>
       </c>
       <c r="F43" t="n">
-        <v>934289.2222709834</v>
+        <v>896352.180465027</v>
       </c>
       <c r="G43" t="n">
         <v>98.63183140370795</v>
       </c>
       <c r="H43" t="n">
-        <v>624.8132307446995</v>
+        <v>602.2659940858118</v>
       </c>
       <c r="I43" t="n">
-        <v>925396.8644719104</v>
+        <v>887795.5894704388</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,22 +1839,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>137.3586232977025</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E44" t="n">
-        <v>9470</v>
+        <v>9086</v>
       </c>
       <c r="F44" t="n">
-        <v>940514.5896223985</v>
+        <v>902322.9036349359</v>
       </c>
       <c r="G44" t="n">
         <v>99.30065797244993</v>
       </c>
       <c r="H44" t="n">
-        <v>45.55055710964618</v>
+        <v>45.37181592529577</v>
       </c>
       <c r="I44" t="n">
-        <v>934776.6768784303</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E45" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F45" t="n">
-        <v>949350.1103456974</v>
+        <v>910812.6919466458</v>
       </c>
       <c r="G45" t="n">
         <v>100.2350392526293</v>
       </c>
       <c r="H45" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E46" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F46" t="n">
-        <v>945251.3995207532</v>
+        <v>906880.5953828783</v>
       </c>
       <c r="G46" t="n">
         <v>99.80227493788493</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E47" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F47" t="n">
-        <v>940314.2308442618</v>
+        <v>902144.1246200654</v>
       </c>
       <c r="G47" t="n">
         <v>99.28098165560309</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E48" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F48" t="n">
-        <v>948325.3915595433</v>
+        <v>909829.6283957013</v>
       </c>
       <c r="G48" t="n">
         <v>100.1268438365007</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E49" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F49" t="n">
-        <v>949815.9149997119</v>
+        <v>911259.5614521232</v>
       </c>
       <c r="G49" t="n">
         <v>100.284221456622</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>24.05358404507319</v>
+        <v>77.12529725579316</v>
       </c>
       <c r="E50" t="n">
-        <v>9471</v>
+        <v>9086</v>
       </c>
       <c r="F50" t="n">
-        <v>946089.7321769134</v>
+        <v>907684.8494757799</v>
       </c>
       <c r="G50" t="n">
         <v>99.89079068660843</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>934889.9819176829</v>
+        <v>896877.321161857</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>957089.2924961476</v>
+        <v>918234.4297007363</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>957089.2924961476</v>
+        <v>918234.4297007363</v>
       </c>
       <c r="G51" t="n">
         <v>101.1202422976437</v>
       </c>
       <c r="H51" t="n">
-        <v>644.5758888805899</v>
+        <v>621.2171129098342</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>22175.25699441961</v>
+        <v>21279.9832416235</v>
       </c>
     </row>
     <row r="52">
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>957089.2924961476</v>
+        <v>918234.4297007363</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>957089.2924961476</v>
+        <v>918234.4297007363</v>
       </c>
       <c r="G52" t="n">
         <v>99.42851550067361</v>
@@ -2127,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>9678.403832478522</v>
+        <v>9359.777722199826</v>
       </c>
       <c r="E53" t="n">
-        <v>9612</v>
+        <v>9221</v>
       </c>
       <c r="F53" t="n">
-        <v>956451.2787711844</v>
+        <v>917619.5238530578</v>
       </c>
       <c r="G53" t="n">
         <v>98.49905065945754</v>
       </c>
       <c r="H53" t="n">
-        <v>638.0137249632236</v>
+        <v>614.9058476785149</v>
       </c>
       <c r="I53" t="n">
-        <v>947410.888663669</v>
+        <v>908874.6519785365</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>9678.403832478522</v>
+        <v>9359.777722199826</v>
       </c>
       <c r="E54" t="n">
-        <v>9612</v>
+        <v>9221</v>
       </c>
       <c r="F54" t="n">
-        <v>951535.1667891075</v>
+        <v>912903.3910412879</v>
       </c>
       <c r="G54" t="n">
         <v>97.98759498092269</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>947410.888663669</v>
+        <v>908874.6519785365</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>9678.403832478522</v>
+        <v>9359.777722199826</v>
       </c>
       <c r="E55" t="n">
-        <v>9612</v>
+        <v>9221</v>
       </c>
       <c r="F55" t="n">
-        <v>962454.5260851718</v>
+        <v>923378.5691591623</v>
       </c>
       <c r="G55" t="n">
         <v>99.12360822437508</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>947410.888663669</v>
+        <v>908874.6519785365</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2223,22 +2223,22 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>135.6551465722851</v>
+        <v>117.1174158485244</v>
       </c>
       <c r="E56" t="n">
-        <v>9707</v>
+        <v>9313</v>
       </c>
       <c r="F56" t="n">
-        <v>970539.3796917591</v>
+        <v>931132.8675641256</v>
       </c>
       <c r="G56" t="n">
         <v>99.96947816474574</v>
       </c>
       <c r="H56" t="n">
-        <v>45.64826025539051</v>
+        <v>45.46831519469396</v>
       </c>
       <c r="I56" t="n">
-        <v>956953.6373495753</v>
+        <v>918117.3122848878</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>20.25511357603222</v>
+        <v>1.717382852271534</v>
       </c>
       <c r="E57" t="n">
-        <v>9708</v>
+        <v>9314</v>
       </c>
       <c r="F57" t="n">
-        <v>993440.2154411994</v>
+        <v>953103.6447099518</v>
       </c>
       <c r="G57" t="n">
         <v>102.3300329962529</v>
@@ -2270,7 +2270,7 @@
         <v>13.07</v>
       </c>
       <c r="I57" t="n">
-        <v>957069.0373825715</v>
+        <v>918232.712317884</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>20.25511357603222</v>
+        <v>1.717382852271534</v>
       </c>
       <c r="E58" t="n">
-        <v>9708</v>
+        <v>9314</v>
       </c>
       <c r="F58" t="n">
-        <v>1000983.44643799</v>
+        <v>960340.7330395883</v>
       </c>
       <c r="G58" t="n">
         <v>103.1070448418226</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>957069.0373825715</v>
+        <v>918232.712317884</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>20.25511357603222</v>
+        <v>1.717382852271534</v>
       </c>
       <c r="E59" t="n">
-        <v>9708</v>
+        <v>9314</v>
       </c>
       <c r="F59" t="n">
-        <v>967277.4617820478</v>
+        <v>928002.708617931</v>
       </c>
       <c r="G59" t="n">
         <v>99.63506455175852</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>957069.0373825715</v>
+        <v>918232.712317884</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>20.25511357603222</v>
+        <v>1.717382852271534</v>
       </c>
       <c r="E60" t="n">
-        <v>9708</v>
+        <v>9314</v>
       </c>
       <c r="F60" t="n">
-        <v>982841.448145975</v>
+        <v>942935.029280644</v>
       </c>
       <c r="G60" t="n">
         <v>101.2382769913884</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>957069.0373825715</v>
+        <v>918232.712317884</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,25 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>989625.0802867139</v>
+        <v>949440.5082113036</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>989625.0802867139</v>
+        <v>949440.5082113036</v>
       </c>
       <c r="G61" t="n">
         <v>102.0054528775298</v>
       </c>
       <c r="H61" t="n">
-        <v>664.1113619210354</v>
+        <v>639.9972728607875</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>32535.78779056633</v>
+        <v>31206.07851056743</v>
       </c>
     </row>
     <row r="62">
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>989625.0802867139</v>
+        <v>949440.5082113036</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>989625.0802867139</v>
+        <v>949440.5082113036</v>
       </c>
       <c r="G62" t="n">
         <v>103.6578479340217</v>
@@ -2447,22 +2447,22 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>10011.62549678128</v>
+        <v>9638.168266757479</v>
       </c>
       <c r="E63" t="n">
-        <v>9276</v>
+        <v>8899</v>
       </c>
       <c r="F63" t="n">
-        <v>988967.7566080472</v>
+        <v>948807.0568781368</v>
       </c>
       <c r="G63" t="n">
         <v>105.5364522543409</v>
       </c>
       <c r="H63" t="n">
-        <v>657.3236786667595</v>
+        <v>633.4513331668277</v>
       </c>
       <c r="I63" t="n">
-        <v>979613.4547899326</v>
+        <v>939802.3399445461</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="G64" t="n">
         <v>105.3692427362847</v>
       </c>
       <c r="H64" t="n">
-        <v>656.3930573730664</v>
+        <v>632.5585346661187</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-2864.752225528471</v>
+        <v>-2754.007369014318</v>
       </c>
     </row>
     <row r="65">
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="G65" t="n">
         <v>104.8873015271089</v>
@@ -2543,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="G66" t="n">
         <v>103.598829438398</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="G67" t="n">
         <v>103.2054050273032</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>986760.3280611854</v>
+        <v>946686.5008422893</v>
       </c>
       <c r="G68" t="n">
         <v>103.1463890449497</v>
@@ -2639,22 +2639,22 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>10002.44925903196</v>
+        <v>9629.689027612671</v>
       </c>
       <c r="E69" t="n">
-        <v>9373</v>
+        <v>8992</v>
       </c>
       <c r="F69" t="n">
-        <v>986104.7167007204</v>
+        <v>946054.695838203</v>
       </c>
       <c r="G69" t="n">
         <v>104.1397916826724</v>
       </c>
       <c r="H69" t="n">
-        <v>655.6113604650131</v>
+        <v>631.8050040863542</v>
       </c>
       <c r="I69" t="n">
-        <v>976757.8788021535</v>
+        <v>937056.8118146766</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -2671,22 +2671,22 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>64.21865808538364</v>
+        <v>108.2281361796337</v>
       </c>
       <c r="E70" t="n">
-        <v>9468</v>
+        <v>9083</v>
       </c>
       <c r="F70" t="n">
-        <v>985966.5796600336</v>
+        <v>945920.558615763</v>
       </c>
       <c r="G70" t="n">
         <v>104.1299494087398</v>
       </c>
       <c r="H70" t="n">
-        <v>45.88540711629817</v>
+        <v>45.63549523771719</v>
       </c>
       <c r="I70" t="n">
-        <v>986696.1094031001</v>
+        <v>946578.2727061097</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>64.21865808538364</v>
+        <v>108.2281361796337</v>
       </c>
       <c r="E71" t="n">
-        <v>9468</v>
+        <v>9083</v>
       </c>
       <c r="F71" t="n">
-        <v>989877.8524035355</v>
+        <v>949672.7861537044</v>
       </c>
       <c r="G71" t="n">
         <v>104.5430538387674</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>986696.1094031001</v>
+        <v>946578.2727061097</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>64.21865808538364</v>
+        <v>108.2281361796337</v>
       </c>
       <c r="E72" t="n">
-        <v>9468</v>
+        <v>9083</v>
       </c>
       <c r="F72" t="n">
-        <v>980192.9171809257</v>
+        <v>940381.6722302818</v>
       </c>
       <c r="G72" t="n">
         <v>103.520141373346</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>986696.1094031001</v>
+        <v>946578.2727061097</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="G73" t="n">
         <v>102.7332910652714</v>
       </c>
       <c r="H73" t="n">
-        <v>653.5572798835939</v>
+        <v>629.8258896475162</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-14670.86687699403</v>
+        <v>-14081.61584989692</v>
       </c>
     </row>
     <row r="74">
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="G74" t="n">
         <v>103.0873755970759</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="G75" t="n">
         <v>101.6710391513396</v>
@@ -2863,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>972089.4611841914</v>
+        <v>932604.8849923924</v>
       </c>
       <c r="G76" t="n">
         <v>102.1333218246609</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9832.108279256861</v>
+        <v>9437.36226228578</v>
       </c>
       <c r="E77" t="n">
-        <v>9329</v>
+        <v>8950</v>
       </c>
       <c r="F77" t="n">
-        <v>971442.5449222056</v>
+        <v>931981.408564611</v>
       </c>
       <c r="G77" t="n">
         <v>103.0775470728855</v>
       </c>
       <c r="H77" t="n">
-        <v>646.9162619857693</v>
+        <v>623.4764277813952</v>
       </c>
       <c r="I77" t="n">
-        <v>962257.3529049346</v>
+        <v>923167.5227301066</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2927,25 +2927,25 @@
         <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="G78" t="n">
         <v>103.5693197535472</v>
       </c>
       <c r="H78" t="n">
-        <v>649.6689103885054</v>
+        <v>626.1172470765488</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3291.162165519199</v>
+        <v>3151.771817064728</v>
       </c>
     </row>
     <row r="79">
@@ -2959,13 +2959,13 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="G79" t="n">
         <v>102.251347652215</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>975380.6233497106</v>
+        <v>935756.6568094571</v>
       </c>
       <c r="G80" t="n">
         <v>103.0480360654579</v>
@@ -3023,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>9865.588851402164</v>
+        <v>9470.117947473527</v>
       </c>
       <c r="E81" t="n">
-        <v>9106</v>
+        <v>8736</v>
       </c>
       <c r="F81" t="n">
-        <v>974731.7536508309</v>
+        <v>935131.3100941691</v>
       </c>
       <c r="G81" t="n">
         <v>105.9593855479276</v>
       </c>
       <c r="H81" t="n">
-        <v>648.8696988796573</v>
+        <v>625.3467152880174</v>
       </c>
       <c r="I81" t="n">
-        <v>965515.0344983084</v>
+        <v>926286.5388619836</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>9865.588851402164</v>
+        <v>9470.117947473527</v>
       </c>
       <c r="E82" t="n">
-        <v>9106</v>
+        <v>8736</v>
       </c>
       <c r="F82" t="n">
-        <v>995331.3239934701</v>
+        <v>954893.8673655611</v>
       </c>
       <c r="G82" t="n">
         <v>108.2215830377847</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>965515.0344983084</v>
+        <v>926286.5388619836</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>9865.588851402164</v>
+        <v>9470.117947473527</v>
       </c>
       <c r="E83" t="n">
-        <v>9106</v>
+        <v>8736</v>
       </c>
       <c r="F83" t="n">
-        <v>973298.7308063072</v>
+        <v>933756.5146219793</v>
       </c>
       <c r="G83" t="n">
         <v>105.8020142713491</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>965515.0344983084</v>
+        <v>926286.5388619836</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>144.8654240813213</v>
+        <v>65.07191452184276</v>
       </c>
       <c r="E84" t="n">
-        <v>9198</v>
+        <v>8825</v>
       </c>
       <c r="F84" t="n">
-        <v>967431.384648385</v>
+        <v>928125.9038512994</v>
       </c>
       <c r="G84" t="n">
         <v>105.162700502751</v>
       </c>
       <c r="H84" t="n">
-        <v>45.75498106775186</v>
+        <v>45.56568820684691</v>
       </c>
       <c r="I84" t="n">
-        <v>975235.7579256293</v>
+        <v>935691.5848949353</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>26.7409198483024</v>
+        <v>65.07191452184276</v>
       </c>
       <c r="E85" t="n">
-        <v>9199</v>
+        <v>8825</v>
       </c>
       <c r="F85" t="n">
-        <v>966423.1253593888</v>
+        <v>927171.0717709133</v>
       </c>
       <c r="G85" t="n">
         <v>105.0545042330189</v>
       </c>
       <c r="H85" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>975353.8824298623</v>
+        <v>935691.5848949353</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>977166.7342807349</v>
+        <v>937475.0382271453</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>977166.7342807349</v>
+        <v>937475.0382271453</v>
       </c>
       <c r="G86" t="n">
         <v>106.2937951226967</v>
       </c>
       <c r="H86" t="n">
-        <v>656.6279728002121</v>
+        <v>632.7756451746789</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1786.110931024305</v>
+        <v>1718.381417688215</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>9965.411607730273</v>
+        <v>9523.656256450982</v>
       </c>
       <c r="E87" t="n">
-        <v>9043</v>
+        <v>8676</v>
       </c>
       <c r="F87" t="n">
-        <v>976516.8534156502</v>
+        <v>936848.6932049763</v>
       </c>
       <c r="G87" t="n">
         <v>106.8839369465797</v>
       </c>
       <c r="H87" t="n">
-        <v>649.880865084752</v>
+        <v>626.3450221691152</v>
       </c>
       <c r="I87" t="n">
-        <v>967201.3226730046</v>
+        <v>927951.3819706943</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3244,28 +3244,28 @@
         <v>44231</v>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>982267.0183929054</v>
+        <v>9523.656256450982</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>8676</v>
       </c>
       <c r="F88" t="n">
-        <v>982267.0183929054</v>
+        <v>942992.6867699906</v>
       </c>
       <c r="G88" t="n">
         <v>107.5920966474804</v>
       </c>
       <c r="H88" t="n">
-        <v>653.7231979898989</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>927951.3819706943</v>
       </c>
       <c r="J88" t="n">
-        <v>5100.284112170455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>10024.91075921051</v>
+        <v>99.59689063144982</v>
       </c>
       <c r="E89" t="n">
-        <v>9013</v>
+        <v>8763</v>
       </c>
       <c r="F89" t="n">
-        <v>981614.1148704386</v>
+        <v>944739.1392879123</v>
       </c>
       <c r="G89" t="n">
         <v>107.7986468557892</v>
       </c>
       <c r="H89" t="n">
-        <v>652.9035224667369</v>
+        <v>45.5770893658722</v>
       </c>
       <c r="I89" t="n">
-        <v>972242.1076336949</v>
+        <v>937375.4413365138</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>94.12964372135411</v>
+        <v>99.59689063144982</v>
       </c>
       <c r="E90" t="n">
-        <v>9105</v>
+        <v>8763</v>
       </c>
       <c r="F90" t="n">
-        <v>978376.9133053586</v>
+        <v>941636.3385959502</v>
       </c>
       <c r="G90" t="n">
         <v>107.4445671237383</v>
       </c>
       <c r="H90" t="n">
-        <v>45.88094010523036</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>982172.8887491841</v>
+        <v>937375.4413365138</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>94.12964372135411</v>
+        <v>99.59689063144982</v>
       </c>
       <c r="E91" t="n">
-        <v>9105</v>
+        <v>8763</v>
       </c>
       <c r="F91" t="n">
-        <v>971929.0243077857</v>
+        <v>935430.6437814821</v>
       </c>
       <c r="G91" t="n">
         <v>106.7363969977006</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>982172.8887491841</v>
+        <v>937375.4413365138</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>962594.4950567769</v>
+        <v>926444.1086110715</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>962594.4950567769</v>
+        <v>926444.1086110715</v>
       </c>
       <c r="G92" t="n">
         <v>105.7823398501545</v>
       </c>
       <c r="H92" t="n">
-        <v>647.8389226013942</v>
+        <v>626.1323864641425</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-19672.52333612856</v>
+        <v>-11030.92961607384</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>9770.807710655225</v>
+        <v>9432.62125916584</v>
       </c>
       <c r="E93" t="n">
-        <v>8939</v>
+        <v>8603</v>
       </c>
       <c r="F93" t="n">
-        <v>961953.2356000433</v>
+        <v>925824.3235896731</v>
       </c>
       <c r="G93" t="n">
         <v>106.5200165442877</v>
       </c>
       <c r="H93" t="n">
-        <v>641.2594567336329</v>
+        <v>619.7850213983045</v>
       </c>
       <c r="I93" t="n">
-        <v>952823.6873461216</v>
+        <v>917011.4873519057</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>139.1897349871659</v>
+        <v>120.7255493533833</v>
       </c>
       <c r="E94" t="n">
-        <v>9029</v>
+        <v>8690</v>
       </c>
       <c r="F94" t="n">
-        <v>961819.6276090061</v>
+        <v>925694.2115528117</v>
       </c>
       <c r="G94" t="n">
         <v>106.5101825090286</v>
       </c>
       <c r="H94" t="n">
-        <v>45.70154985548754</v>
+        <v>45.5098315269713</v>
       </c>
       <c r="I94" t="n">
-        <v>962455.3053217897</v>
+        <v>926323.3830617181</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>139.1897349871659</v>
+        <v>120.7255493533833</v>
       </c>
       <c r="E95" t="n">
-        <v>9029</v>
+        <v>8690</v>
       </c>
       <c r="F95" t="n">
-        <v>965727.09345757</v>
+        <v>929454.968915091</v>
       </c>
       <c r="G95" t="n">
         <v>106.9429509051482</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>962455.3053217897</v>
+        <v>926323.3830617181</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>962592.7160429482</v>
+        <v>926435.6475303237</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>962592.7160429482</v>
+        <v>926435.6475303237</v>
       </c>
       <c r="G96" t="n">
         <v>106.6675531188644</v>
       </c>
       <c r="H96" t="n">
-        <v>647.8108022661363</v>
+        <v>626.1146219617592</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-1.779013828723691</v>
+        <v>-8.46108074777294</v>
       </c>
     </row>
     <row r="97">
@@ -3532,16 +3532,16 @@
         <v>44244</v>
       </c>
       <c r="C97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>962592.7160429482</v>
+        <v>926435.6475303237</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>962592.7160429482</v>
+        <v>926435.6475303237</v>
       </c>
       <c r="G97" t="n">
         <v>104.1889653035816</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9785.721691568308</v>
+        <v>9444.278705408104</v>
       </c>
       <c r="E98" t="n">
-        <v>9204</v>
+        <v>8858</v>
       </c>
       <c r="F98" t="n">
-        <v>961951.4665960055</v>
+        <v>925815.8745728033</v>
       </c>
       <c r="G98" t="n">
         <v>103.4512977949193</v>
       </c>
       <c r="H98" t="n">
-        <v>641.2494469426624</v>
+        <v>619.7729575204371</v>
       </c>
       <c r="I98" t="n">
-        <v>952806.9943513799</v>
+        <v>916991.3688249156</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>79.67242091092565</v>
+        <v>153.9756399402861</v>
       </c>
       <c r="E99" t="n">
-        <v>9297</v>
+        <v>8947</v>
       </c>
       <c r="F99" t="n">
-        <v>965798.3586210369</v>
+        <v>929516.6824735991</v>
       </c>
       <c r="G99" t="n">
         <v>103.8742267613344</v>
       </c>
       <c r="H99" t="n">
-        <v>45.74618185328247</v>
+        <v>45.49688370905526</v>
       </c>
       <c r="I99" t="n">
-        <v>962513.0436220373</v>
+        <v>926281.6718903835</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>947785.4531111508</v>
+        <v>912179.2673830376</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>947785.4531111508</v>
+        <v>912179.2673830376</v>
       </c>
       <c r="G100" t="n">
         <v>102.0054574091384</v>
       </c>
       <c r="H100" t="n">
-        <v>638.9568425196558</v>
+        <v>617.5356964637367</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-14807.26293179742</v>
+        <v>-14256.38014728611</v>
       </c>
     </row>
     <row r="101">
@@ -3663,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>947785.4531111508</v>
+        <v>912179.2673830376</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>947785.4531111508</v>
+        <v>912179.2673830376</v>
       </c>
       <c r="G101" t="n">
         <v>100.4809314990725</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>9646.058100741964</v>
+        <v>9278.23235358973</v>
       </c>
       <c r="E102" t="n">
-        <v>9264</v>
+        <v>8916</v>
       </c>
       <c r="F102" t="n">
-        <v>947152.9989466432</v>
+        <v>911567.943556316</v>
       </c>
       <c r="G102" t="n">
         <v>101.1989357562501</v>
       </c>
       <c r="H102" t="n">
-        <v>632.4541645075408</v>
+        <v>611.3238267216358</v>
       </c>
       <c r="I102" t="n">
-        <v>938139.3950104088</v>
+        <v>902901.0350294479</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>132.2140150369981</v>
+        <v>69.99775452040723</v>
       </c>
       <c r="E103" t="n">
-        <v>9357</v>
+        <v>9006</v>
       </c>
       <c r="F103" t="n">
-        <v>952756.62818311</v>
+        <v>916959.5429076321</v>
       </c>
       <c r="G103" t="n">
         <v>101.8087436323686</v>
       </c>
       <c r="H103" t="n">
-        <v>45.63092789468617</v>
+        <v>45.44767215614791</v>
       </c>
       <c r="I103" t="n">
-        <v>947653.2390961138</v>
+        <v>912109.2696285172</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>937582.7140211583</v>
+        <v>902352.208997988</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>937582.7140211583</v>
+        <v>902352.208997988</v>
       </c>
       <c r="G104" t="n">
         <v>100.254707703977</v>
       </c>
       <c r="H104" t="n">
-        <v>632.7999799916678</v>
+        <v>611.6863385492102</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-10202.7390899926</v>
+        <v>-9827.058385049575</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>9527.390535612671</v>
+        <v>9136.966850614743</v>
       </c>
       <c r="E105" t="n">
-        <v>9136</v>
+        <v>8793</v>
       </c>
       <c r="F105" t="n">
-        <v>936956.3066714768</v>
+        <v>901746.6931622011</v>
       </c>
       <c r="G105" t="n">
         <v>101.5136729570779</v>
       </c>
       <c r="H105" t="n">
-        <v>626.4073496815184</v>
+        <v>605.5158357869518</v>
       </c>
       <c r="I105" t="n">
-        <v>928055.3234855456</v>
+        <v>893215.2421473733</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>941897.7417400382</v>
+        <v>906499.9818780351</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>941897.7417400382</v>
+        <v>906499.9818780351</v>
       </c>
       <c r="G106" t="n">
         <v>102.1234786848932</v>
       </c>
       <c r="H106" t="n">
-        <v>629.7500607591109</v>
+        <v>608.7330488457598</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>4315.027718879865</v>
+        <v>4147.772880047094</v>
       </c>
     </row>
     <row r="107">
@@ -3855,13 +3855,13 @@
         <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>941897.7417400382</v>
+        <v>906499.9818780351</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>941897.7417400382</v>
+        <v>906499.9818780351</v>
       </c>
       <c r="G107" t="n">
         <v>101.6415365177615</v>
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>9583.322579977226</v>
+        <v>9240.702596446365</v>
       </c>
       <c r="E108" t="n">
-        <v>9228</v>
+        <v>8881</v>
       </c>
       <c r="F108" t="n">
-        <v>941268.7804653069</v>
+        <v>905892.041074948</v>
       </c>
       <c r="G108" t="n">
         <v>100.9628801349512</v>
       </c>
       <c r="H108" t="n">
-        <v>628.9612747311979</v>
+        <v>607.940803087101</v>
       </c>
       <c r="I108" t="n">
-        <v>932314.4191600609</v>
+        <v>897259.2792815887</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>109.1496532683325</v>
+        <v>67.62189080264784</v>
       </c>
       <c r="E109" t="n">
-        <v>9322</v>
+        <v>8972</v>
       </c>
       <c r="F109" t="n">
-        <v>935142.0248513442</v>
+        <v>899994.1351151254</v>
       </c>
       <c r="G109" t="n">
         <v>100.3038913535803</v>
       </c>
       <c r="H109" t="n">
-        <v>45.60713947234193</v>
+        <v>45.42659246790549</v>
       </c>
       <c r="I109" t="n">
-        <v>941788.5920867699</v>
+        <v>906432.3599872325</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>109.1496532683325</v>
+        <v>67.62189080264784</v>
       </c>
       <c r="E110" t="n">
-        <v>9322</v>
+        <v>8972</v>
       </c>
       <c r="F110" t="n">
-        <v>948436.7209211467</v>
+        <v>912789.6739628264</v>
       </c>
       <c r="G110" t="n">
         <v>101.7300548452991</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>941788.5920867699</v>
+        <v>906432.3599872325</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>109.1496532683325</v>
+        <v>67.62189080264784</v>
       </c>
       <c r="E111" t="n">
-        <v>9322</v>
+        <v>8972</v>
       </c>
       <c r="F111" t="n">
-        <v>969249.8848829651</v>
+        <v>932821.39538156</v>
       </c>
       <c r="G111" t="n">
         <v>103.9627478255414</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>941788.5920867699</v>
+        <v>906432.3599872325</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>969514.7454943836</v>
+        <v>933073.6853306746</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>969514.7454943836</v>
+        <v>933073.6853306746</v>
       </c>
       <c r="G112" t="n">
         <v>104.0611006639508</v>
       </c>
       <c r="H112" t="n">
-        <v>651.9845482336094</v>
+        <v>630.1317170941797</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>27617.00375434547</v>
+        <v>26573.70345263951</v>
       </c>
     </row>
     <row r="113">
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>969514.7454943836</v>
+        <v>933073.6853306746</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>969514.7454943836</v>
+        <v>933073.6853306746</v>
       </c>
       <c r="G113" t="n">
         <v>103.4512894126942</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>9817.141887770375</v>
+        <v>9477.82946424597</v>
       </c>
       <c r="E114" t="n">
-        <v>9330</v>
+        <v>8979</v>
       </c>
       <c r="F114" t="n">
-        <v>968869.3641610197</v>
+        <v>932449.9520571189</v>
       </c>
       <c r="G114" t="n">
         <v>102.7923067816987</v>
       </c>
       <c r="H114" t="n">
-        <v>645.3813333639496</v>
+        <v>623.7332735557238</v>
       </c>
       <c r="I114" t="n">
-        <v>959697.6036066132</v>
+        <v>923595.8558664287</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>153.7850526397933</v>
+        <v>118.3696870668816</v>
       </c>
       <c r="E115" t="n">
-        <v>9425</v>
+        <v>9071</v>
       </c>
       <c r="F115" t="n">
-        <v>954324.5396641436</v>
+        <v>918450.7744701917</v>
       </c>
       <c r="G115" t="n">
         <v>101.2382763513532</v>
       </c>
       <c r="H115" t="n">
-        <v>45.72058175202714</v>
+        <v>45.5383528545947</v>
       </c>
       <c r="I115" t="n">
-        <v>969360.9604417438</v>
+        <v>932955.3156436078</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>153.7850526397933</v>
+        <v>118.3696870668816</v>
       </c>
       <c r="E116" t="n">
-        <v>9425</v>
+        <v>9071</v>
       </c>
       <c r="F116" t="n">
-        <v>955344.1855572154</v>
+        <v>919432.1227880754</v>
       </c>
       <c r="G116" t="n">
         <v>101.3464615919974</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>969360.9604417438</v>
+        <v>932955.3156436078</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4175,25 +4175,25 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="G117" t="n">
         <v>101.1890946133065</v>
       </c>
       <c r="H117" t="n">
-        <v>642.1743300382483</v>
+        <v>620.681766342382</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>-16295.91804136825</v>
+        <v>-15689.7201726468</v>
       </c>
     </row>
     <row r="118">
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="G118" t="n">
         <v>101.375970336472</v>
@@ -4239,13 +4239,13 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>953218.8274530154</v>
+        <v>917383.9651580278</v>
       </c>
       <c r="G119" t="n">
         <v>101.3759746816116</v>
@@ -4271,22 +4271,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>9712.693141317299</v>
+        <v>9318.709295304136</v>
       </c>
       <c r="E120" t="n">
-        <v>9317</v>
+        <v>8967</v>
       </c>
       <c r="F120" t="n">
-        <v>952583.1551757947</v>
+        <v>916769.5446568109</v>
       </c>
       <c r="G120" t="n">
         <v>101.1989333513446</v>
       </c>
       <c r="H120" t="n">
-        <v>635.6722772206865</v>
+        <v>614.4205012169041</v>
       </c>
       <c r="I120" t="n">
-        <v>943506.134311698</v>
+        <v>908065.2558627237</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4303,25 +4303,25 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="G121" t="n">
         <v>100.8743524921631</v>
       </c>
       <c r="H121" t="n">
-        <v>633.8578053016902</v>
+        <v>612.674191278336</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-4293.649947516154</v>
+        <v>-4137.611256775446</v>
       </c>
     </row>
     <row r="122">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="G122" t="n">
         <v>101.6120293353571</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="G123" t="n">
         <v>100.7858387210436</v>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="G124" t="n">
         <v>101.1595888144961</v>
@@ -4431,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>948925.1775054992</v>
+        <v>913246.3539012524</v>
       </c>
       <c r="G125" t="n">
         <v>101.9562777047069</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>9591.994600027096</v>
+        <v>9316.64066971017</v>
       </c>
       <c r="E126" t="n">
-        <v>9206</v>
+        <v>8859</v>
       </c>
       <c r="F126" t="n">
-        <v>948292.0074977606</v>
+        <v>912634.4132377115</v>
       </c>
       <c r="G126" t="n">
         <v>101.966110460323</v>
       </c>
       <c r="H126" t="n">
-        <v>633.1700077386402</v>
+        <v>611.9406635408009</v>
       </c>
       <c r="I126" t="n">
-        <v>939333.1829054721</v>
+        <v>903929.7132315423</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="G127" t="n">
         <v>102.0743043360772</v>
       </c>
       <c r="H127" t="n">
-        <v>633.7676274307561</v>
+        <v>612.5157572679848</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-270.9048149761511</v>
+        <v>-265.9668755022576</v>
       </c>
     </row>
     <row r="128">
@@ -4527,13 +4527,13 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="G128" t="n">
         <v>104.1791280050656</v>
@@ -4559,13 +4559,13 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="G129" t="n">
         <v>107.2183421189838</v>
@@ -4591,13 +4591,13 @@
         <v>-1</v>
       </c>
       <c r="D130" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>948654.2726905231</v>
+        <v>912980.3870257501</v>
       </c>
       <c r="G130" t="n">
         <v>106.9036015261812</v>
@@ -4620,25 +4620,25 @@
         <v>44294</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>948654.2726905231</v>
+        <v>9286.081117078016</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>8304</v>
       </c>
       <c r="F131" t="n">
-        <v>948654.2726905231</v>
+        <v>912368.5875219072</v>
       </c>
       <c r="G131" t="n">
         <v>108.7527103088667</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>611.7995038428976</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>903694.3059086722</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>948654.2726905231</v>
+        <v>9286.081117078016</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>8304</v>
       </c>
       <c r="F132" t="n">
-        <v>948654.2726905231</v>
+        <v>919392.6343961245</v>
       </c>
       <c r="G132" t="n">
         <v>109.5985733717542</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>903694.3059086722</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>948654.2726905231</v>
+        <v>9286.081117078016</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>8304</v>
       </c>
       <c r="F133" t="n">
-        <v>948654.2726905231</v>
+        <v>920944.4183890416</v>
       </c>
       <c r="G133" t="n">
         <v>109.78544523988</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>903694.3059086722</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4719,25 +4719,25 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="G134" t="n">
         <v>109.7461012569244</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>616.7489749025001</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>7020.569953925442</v>
       </c>
     </row>
     <row r="135">
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="G135" t="n">
         <v>113.749213537078</v>
@@ -4780,16 +4780,16 @@
         <v>44301</v>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="G136" t="n">
         <v>113.0902212895904</v>
@@ -4815,13 +4815,13 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>948654.2726905231</v>
+        <v>920000.9569796756</v>
       </c>
       <c r="G137" t="n">
         <v>113.6705266702942</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>9625.980528739043</v>
+        <v>9349.971189815844</v>
       </c>
       <c r="E138" t="n">
-        <v>8239</v>
+        <v>7990</v>
       </c>
       <c r="F138" t="n">
-        <v>948021.2855075358</v>
+        <v>919384.985970807</v>
       </c>
       <c r="G138" t="n">
         <v>113.8967477823518</v>
       </c>
       <c r="H138" t="n">
-        <v>632.9871829872781</v>
+        <v>615.9710088685947</v>
       </c>
       <c r="I138" t="n">
-        <v>939028.292161784</v>
+        <v>910650.9857898597</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4879,25 +4879,25 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="G139" t="n">
         <v>113.5820113288306</v>
       </c>
       <c r="H139" t="n">
-        <v>631.4313148029415</v>
+        <v>614.4621623104141</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>-3857.532138351235</v>
+        <v>-3745.177434813231</v>
       </c>
     </row>
     <row r="140">
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="G140" t="n">
         <v>113.4934850602751</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="G141" t="n">
         <v>117.1130022851113</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>944796.7405521718</v>
+        <v>916255.7795448623</v>
       </c>
       <c r="G142" t="n">
         <v>117.0835007520704</v>
@@ -5007,22 +5007,22 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>9570.061936376102</v>
+        <v>9363.635588516079</v>
       </c>
       <c r="E143" t="n">
-        <v>7987</v>
+        <v>7745</v>
       </c>
       <c r="F143" t="n">
-        <v>944166.032969552</v>
+        <v>915642.0624887223</v>
       </c>
       <c r="G143" t="n">
         <v>117.0146451775605</v>
       </c>
       <c r="H143" t="n">
-        <v>630.7075826199056</v>
+        <v>613.7170561401238</v>
       </c>
       <c r="I143" t="n">
-        <v>935226.6786157957</v>
+        <v>906892.1439563462</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>9570.061936376102</v>
+        <v>9363.635588516079</v>
       </c>
       <c r="E144" t="n">
-        <v>7987</v>
+        <v>7745</v>
       </c>
       <c r="F144" t="n">
-        <v>941730.7442897429</v>
+        <v>913280.5611959815</v>
       </c>
       <c r="G144" t="n">
         <v>116.7097386194274</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>935226.6786157957</v>
+        <v>906892.1439563462</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5068,25 +5068,25 @@
         <v>44314</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>9570.061936376102</v>
+        <v>118.2985549294227</v>
       </c>
       <c r="E145" t="n">
-        <v>7987</v>
+        <v>7824</v>
       </c>
       <c r="F145" t="n">
-        <v>939688.2724943026</v>
+        <v>911254.5048157553</v>
       </c>
       <c r="G145" t="n">
         <v>116.4540140926413</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>45.4699202679912</v>
       </c>
       <c r="I145" t="n">
-        <v>935226.6786157957</v>
+        <v>916137.4809899329</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>9570.061936376102</v>
+        <v>118.2985549294227</v>
       </c>
       <c r="E146" t="n">
-        <v>7987</v>
+        <v>7824</v>
       </c>
       <c r="F146" t="n">
-        <v>941730.7442897429</v>
+        <v>913255.2935133295</v>
       </c>
       <c r="G146" t="n">
         <v>116.7097386194274</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>935226.6786157957</v>
+        <v>916137.4809899329</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>9570.061936376102</v>
+        <v>118.2985549294227</v>
       </c>
       <c r="E147" t="n">
-        <v>7987</v>
+        <v>7824</v>
       </c>
       <c r="F147" t="n">
-        <v>933717.931800294</v>
+        <v>905406.0078093795</v>
       </c>
       <c r="G147" t="n">
         <v>115.7065068065504</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>935226.6786157957</v>
+        <v>916137.4809899329</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>95.39744060043782</v>
+        <v>118.2985549294227</v>
       </c>
       <c r="E148" t="n">
-        <v>8069</v>
+        <v>7824</v>
       </c>
       <c r="F148" t="n">
-        <v>927937.6099961626</v>
+        <v>899788.3284266258</v>
       </c>
       <c r="G148" t="n">
         <v>114.9885007504724</v>
       </c>
       <c r="H148" t="n">
-        <v>45.60743423692325</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>944701.3431115714</v>
+        <v>916137.4809899329</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>95.39744060043782</v>
+        <v>118.2985549294227</v>
       </c>
       <c r="E149" t="n">
-        <v>8069</v>
+        <v>7824</v>
       </c>
       <c r="F149" t="n">
-        <v>911826.7962945517</v>
+        <v>884166.689264226</v>
       </c>
       <c r="G149" t="n">
         <v>112.9918699781821</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>944701.3431115714</v>
+        <v>916137.4809899329</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>913034.0880590503</v>
+        <v>885335.1999861788</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>913034.0880590503</v>
+        <v>885335.1999861788</v>
       </c>
       <c r="G150" t="n">
         <v>113.2180908022382</v>
       </c>
       <c r="H150" t="n">
-        <v>618.084064809956</v>
+        <v>601.4410054620269</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-31762.65249312157</v>
+        <v>-30920.57955868356</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>9269.49444654165</v>
+        <v>9024.332468541534</v>
       </c>
       <c r="E151" t="n">
-        <v>7933</v>
+        <v>7692</v>
       </c>
       <c r="F151" t="n">
-        <v>912422.2464078735</v>
+        <v>884739.820693244</v>
       </c>
       <c r="G151" t="n">
         <v>113.8475673719062</v>
       </c>
       <c r="H151" t="n">
-        <v>611.8416511767991</v>
+        <v>595.3792929348215</v>
       </c>
       <c r="I151" t="n">
-        <v>903764.5936125086</v>
+        <v>876310.8675176372</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>9269.49444654165</v>
+        <v>9024.332468541534</v>
       </c>
       <c r="E152" t="n">
-        <v>7933</v>
+        <v>7692</v>
       </c>
       <c r="F152" t="n">
-        <v>922019.4605937911</v>
+        <v>894045.4770046115</v>
       </c>
       <c r="G152" t="n">
         <v>115.0573510837324</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>903764.5936125086</v>
+        <v>876310.8675176372</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="G153" t="n">
         <v>113.64102363667</v>
       </c>
       <c r="H153" t="n">
-        <v>610.858544305822</v>
+        <v>594.4260522879595</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>-2861.211647111224</v>
+        <v>-2778.539756659418</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="G154" t="n">
         <v>111.3886607906992</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="G155" t="n">
         <v>110.8083577691178</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="G156" t="n">
         <v>110.8699989318848</v>
@@ -5455,13 +5455,13 @@
         <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>910172.876411939</v>
+        <v>882556.6602295194</v>
       </c>
       <c r="G157" t="n">
         <v>113.0900001525879</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>9231.47766193904</v>
+        <v>8931.64147951936</v>
       </c>
       <c r="E158" t="n">
-        <v>7915</v>
+        <v>7675</v>
       </c>
       <c r="F158" t="n">
-        <v>909562.727661939</v>
+        <v>881962.8914795193</v>
       </c>
       <c r="G158" t="n">
         <v>113.75</v>
       </c>
       <c r="H158" t="n">
-        <v>610.1487500000001</v>
+        <v>593.7687500000001</v>
       </c>
       <c r="I158" t="n">
-        <v>900941.3987500001</v>
+        <v>873625.01875</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="G159" t="n">
         <v>113.2799987792969</v>
       </c>
       <c r="H159" t="n">
-        <v>607.9167142028809</v>
+        <v>591.6043943786622</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-4938.125126068131</v>
+        <v>-4792.632513275137</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>-1</v>
       </c>
       <c r="D160" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="G160" t="n">
         <v>111.9500007629395</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>905234.7512858709</v>
+        <v>877764.0277162442</v>
       </c>
       <c r="G161" t="n">
         <v>113.5099983215332</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>9174.874449805235</v>
+        <v>8949.418093438435</v>
       </c>
       <c r="E162" t="n">
-        <v>7794</v>
+        <v>7557</v>
       </c>
       <c r="F162" t="n">
-        <v>904627.5296927252</v>
+        <v>877173.1434810117</v>
       </c>
       <c r="G162" t="n">
         <v>114.8899993896484</v>
       </c>
       <c r="H162" t="n">
-        <v>607.221593145752</v>
+        <v>590.8842352325439</v>
       </c>
       <c r="I162" t="n">
-        <v>896059.8768360657</v>
+        <v>868814.6096228057</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G163" t="n">
         <v>115.3899993896484</v>
       </c>
       <c r="H163" t="n">
-        <v>609.559793145752</v>
+        <v>593.1513352325441</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2680.218613708508</v>
+        <v>2594.464429534972</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G164" t="n">
         <v>115.75</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G165" t="n">
         <v>114.9899978637695</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G166" t="n">
         <v>114.7600021362305</v>
@@ -5775,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G167" t="n">
         <v>114.2099990844727</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>907914.9698995794</v>
+        <v>880358.4921457792</v>
       </c>
       <c r="G168" t="n">
         <v>115.0299987792969</v>
@@ -5839,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>9225.053213480936</v>
+        <v>8954.837947036518</v>
       </c>
       <c r="E169" t="n">
-        <v>7871</v>
+        <v>7632</v>
       </c>
       <c r="F169" t="n">
-        <v>907306.1712287703</v>
+        <v>879766.0554152982</v>
       </c>
       <c r="G169" t="n">
         <v>114.1000022888184</v>
       </c>
       <c r="H169" t="n">
-        <v>608.7986708091736</v>
+        <v>592.4367304809571</v>
       </c>
       <c r="I169" t="n">
-        <v>898689.9166860984</v>
+        <v>871403.6541987427</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5871,25 +5871,25 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="G170" t="n">
         <v>113.2799987792969</v>
       </c>
       <c r="H170" t="n">
-        <v>604.9261222351075</v>
+        <v>588.6817704101563</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-7667.972416487872</v>
+        <v>-7439.38528555911</v>
       </c>
     </row>
     <row r="171">
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="G171" t="n">
         <v>114.2600021362305</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="G172" t="n">
         <v>115.0799980163574</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>900246.9974830915</v>
+        <v>872919.1068602201</v>
       </c>
       <c r="G173" t="n">
         <v>116.75</v>
@@ -5996,25 +5996,25 @@
         <v>44356</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>900246.9974830915</v>
+        <v>8885.83596957372</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>7503</v>
       </c>
       <c r="F174" t="n">
-        <v>900246.9974830915</v>
+        <v>872331.089707977</v>
       </c>
       <c r="G174" t="n">
         <v>115.0800018310547</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>588.017152243042</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>864033.2708906464</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="G175" t="n">
         <v>115.25</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>588.78245</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>98.6966593535617</v>
       </c>
     </row>
     <row r="176">
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="G176" t="n">
         <v>117.3099975585938</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="G177" t="n">
         <v>119.3000030517578</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>900246.9974830915</v>
+        <v>873017.8035195736</v>
       </c>
       <c r="G178" t="n">
         <v>120.5499992370605</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>9158.452854032708</v>
+        <v>8893.667351437049</v>
       </c>
       <c r="E179" t="n">
-        <v>7468</v>
+        <v>7242</v>
       </c>
       <c r="F179" t="n">
-        <v>899642.7569006636</v>
+        <v>872429.731880856</v>
       </c>
       <c r="G179" t="n">
         <v>119.2399978637695</v>
       </c>
       <c r="H179" t="n">
-        <v>604.2405824279786</v>
+        <v>588.0716387176515</v>
       </c>
       <c r="I179" t="n">
-        <v>891088.5446290588</v>
+        <v>864124.1361681366</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>890530.1089856062</v>
+        <v>863590.7381876522</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>890530.1089856062</v>
+        <v>863590.7381876522</v>
       </c>
       <c r="G180" t="n">
         <v>118.0999984741211</v>
       </c>
       <c r="H180" t="n">
-        <v>599.1324731628418</v>
+        <v>583.1181133697511</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-9716.888497485314</v>
+        <v>-9427.065331921447</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>890530.1089856062</v>
+        <v>863590.7381876522</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>890530.1089856062</v>
+        <v>863590.7381876522</v>
       </c>
       <c r="G181" t="n">
         <v>118.9799995422363</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>9049.287310346832</v>
+        <v>8772.654631098547</v>
       </c>
       <c r="E182" t="n">
-        <v>7438</v>
+        <v>7213</v>
       </c>
       <c r="F182" t="n">
-        <v>889931.6295802443</v>
+        <v>863008.2468323314</v>
       </c>
       <c r="G182" t="n">
         <v>118.4300003051758</v>
       </c>
       <c r="H182" t="n">
-        <v>598.4794053619385</v>
+        <v>582.4913553207398</v>
       </c>
       <c r="I182" t="n">
-        <v>881480.8216752594</v>
+        <v>854818.0835565537</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>883237.6235827239</v>
+        <v>856514.6189740207</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>883237.6235827239</v>
+        <v>856514.6189740207</v>
       </c>
       <c r="G183" t="n">
         <v>117.6099967956543</v>
       </c>
       <c r="H183" t="n">
-        <v>594.8198936996461</v>
+        <v>578.9425441322327</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-7292.485402882332</v>
+        <v>-7076.119213631493</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>9030.61772729177</v>
+        <v>8685.991201791701</v>
       </c>
       <c r="E184" t="n">
-        <v>7423</v>
+        <v>7199</v>
       </c>
       <c r="F184" t="n">
-        <v>882643.5058498504</v>
+        <v>855936.3187774753</v>
       </c>
       <c r="G184" t="n">
         <v>117.6900024414062</v>
       </c>
       <c r="H184" t="n">
-        <v>594.1177328735351</v>
+        <v>578.3001965454101</v>
       </c>
       <c r="I184" t="n">
-        <v>874207.0058554321</v>
+        <v>847828.627772229</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G185" t="n">
         <v>118.0099983215332</v>
       </c>
       <c r="H185" t="n">
-        <v>595.5429305244446</v>
+        <v>579.6823867500306</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1185.66875478439</v>
+        <v>1145.667757738498</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>-1</v>
       </c>
       <c r="D186" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G186" t="n">
         <v>118.0500030517578</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G187" t="n">
         <v>118.1399993896484</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G188" t="n">
         <v>119.3600006103516</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G189" t="n">
         <v>119.8699989318848</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G190" t="n">
         <v>118.6100006103516</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G191" t="n">
         <v>118.6400032043457</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G192" t="n">
         <v>118.5500030517578</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G193" t="n">
         <v>119.5400009155273</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>884423.2923375083</v>
+        <v>857660.2867317592</v>
       </c>
       <c r="G194" t="n">
         <v>123.9799995422363</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>9017.33675441808</v>
+        <v>8764.787851690233</v>
       </c>
       <c r="E195" t="n">
-        <v>7132</v>
+        <v>6916</v>
       </c>
       <c r="F195" t="n">
-        <v>883828.4556661613</v>
+        <v>857081.3467963923</v>
       </c>
       <c r="G195" t="n">
         <v>122.6599998474121</v>
       </c>
       <c r="H195" t="n">
-        <v>594.8366713470459</v>
+        <v>578.9399353668213</v>
       </c>
       <c r="I195" t="n">
-        <v>875405.9555830902</v>
+        <v>848895.498880069</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>9017.33675441808</v>
+        <v>8764.787851690233</v>
       </c>
       <c r="E196" t="n">
-        <v>7132</v>
+        <v>6916</v>
       </c>
       <c r="F196" t="n">
-        <v>890247.2665487296</v>
+        <v>863305.7573493709</v>
       </c>
       <c r="G196" t="n">
         <v>123.560001373291</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>875405.9555830902</v>
+        <v>848895.498880069</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6732,28 +6732,28 @@
         <v>44389</v>
       </c>
       <c r="C197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>898700.7872696647</v>
+        <v>8764.787851690233</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>6916</v>
       </c>
       <c r="F197" t="n">
-        <v>898700.7872696647</v>
+        <v>872089.0805152644</v>
       </c>
       <c r="G197" t="n">
         <v>124.8300018310547</v>
       </c>
       <c r="H197" t="n">
-        <v>604.1225438354493</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>848895.498880069</v>
       </c>
       <c r="J197" t="n">
-        <v>14277.49493215641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -6767,25 +6767,25 @@
         <v>-1</v>
       </c>
       <c r="D198" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="G198" t="n">
         <v>125.9200019836426</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>592.4676402313233</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>21374.7671985717</v>
       </c>
     </row>
     <row r="199">
@@ -6799,13 +6799,13 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="G199" t="n">
         <v>126.689998626709</v>
@@ -6828,16 +6828,16 @@
         <v>44392</v>
       </c>
       <c r="C200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="G200" t="n">
         <v>125.7200012207031</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>898700.7872696647</v>
+        <v>879035.0539303309</v>
       </c>
       <c r="G201" t="n">
         <v>125.6399993896484</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>9155.22741230767</v>
+        <v>8898.482363120516</v>
       </c>
       <c r="E202" t="n">
-        <v>7195</v>
+        <v>7038</v>
       </c>
       <c r="F202" t="n">
-        <v>898097.4719229583</v>
+        <v>878443.3769935527</v>
       </c>
       <c r="G202" t="n">
         <v>123.5499992370605</v>
       </c>
       <c r="H202" t="n">
-        <v>603.3153467063904</v>
+        <v>591.6769367782593</v>
       </c>
       <c r="I202" t="n">
-        <v>889545.5598573571</v>
+        <v>870136.5715672104</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>83.34125174553571</v>
+        <v>70.70258527627803</v>
       </c>
       <c r="E203" t="n">
-        <v>7269</v>
+        <v>7110</v>
       </c>
       <c r="F203" t="n">
-        <v>886755.9856532959</v>
+        <v>867348.5264530742</v>
       </c>
       <c r="G203" t="n">
         <v>121.9800033569336</v>
       </c>
       <c r="H203" t="n">
-        <v>45.36591214904786</v>
+        <v>45.21953614501953</v>
       </c>
       <c r="I203" t="n">
-        <v>898617.4460179192</v>
+        <v>878964.3513450546</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>83.34125174553571</v>
+        <v>70.70258527627803</v>
       </c>
       <c r="E204" t="n">
-        <v>7269</v>
+        <v>7110</v>
       </c>
       <c r="F204" t="n">
-        <v>853245.8634876159</v>
+        <v>834571.394990977</v>
       </c>
       <c r="G204" t="n">
         <v>117.3699989318848</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>898617.4460179192</v>
+        <v>878964.3513450546</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G205" t="n">
         <v>117.9300003051758</v>
       </c>
       <c r="H205" t="n">
-        <v>584.2899033309936</v>
+        <v>573.0393813018799</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>-41968.56370292744</v>
+        <v>-41055.08855655661</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G206" t="n">
         <v>118.560001373291</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G207" t="n">
         <v>117.810001373291</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G208" t="n">
         <v>118.620002746582</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G209" t="n">
         <v>120.1100006103516</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G210" t="n">
         <v>121.0299987792969</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>856732.2235667374</v>
+        <v>837979.9653737743</v>
       </c>
       <c r="G211" t="n">
         <v>120.3900032043457</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>8756.138148425303</v>
+        <v>8563.198799382355</v>
       </c>
       <c r="E212" t="n">
-        <v>6990</v>
+        <v>6837</v>
       </c>
       <c r="F212" t="n">
-        <v>856153.8349486572</v>
+        <v>837412.7056696521</v>
       </c>
       <c r="G212" t="n">
         <v>121.2299995422363</v>
       </c>
       <c r="H212" t="n">
-        <v>578.3886180801392</v>
+        <v>567.2597041221619</v>
       </c>
       <c r="I212" t="n">
-        <v>847976.0854183121</v>
+        <v>829416.766574392</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>60.35775358506289</v>
+        <v>111.2446128474734</v>
       </c>
       <c r="E213" t="n">
-        <v>7061</v>
+        <v>6906</v>
       </c>
       <c r="F213" t="n">
-        <v>860372.5988310082</v>
+        <v>841538.2856666194</v>
       </c>
       <c r="G213" t="n">
         <v>121.8400001525879</v>
       </c>
       <c r="H213" t="n">
-        <v>45.14038400650025</v>
+        <v>44.99417600631714</v>
       </c>
       <c r="I213" t="n">
-        <v>856671.8658131524</v>
+        <v>837868.7207609268</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="G214" t="n">
         <v>122.8199996948242</v>
       </c>
       <c r="H214" t="n">
-        <v>590.2892107070924</v>
+        <v>578.8669507354737</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>9969.862821294344</v>
+        <v>9747.330180793768</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="G215" t="n">
         <v>124.8899993896484</v>
@@ -7340,16 +7340,16 @@
         <v>44414</v>
       </c>
       <c r="C216" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>866702.0863880318</v>
+        <v>847727.2955545681</v>
       </c>
       <c r="G216" t="n">
         <v>125.129997253418</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>8792.741388031836</v>
+        <v>8590.957604568061</v>
       </c>
       <c r="E217" t="n">
-        <v>6900</v>
+        <v>6749</v>
       </c>
       <c r="F217" t="n">
-        <v>866117.7413880319</v>
+        <v>847154.2076045681</v>
       </c>
       <c r="G217" t="n">
         <v>124.25</v>
       </c>
       <c r="H217" t="n">
-        <v>584.345</v>
+        <v>573.08795</v>
       </c>
       <c r="I217" t="n">
-        <v>857909.345</v>
+        <v>839136.33795</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>8792.741388031836</v>
+        <v>8590.957604568061</v>
       </c>
       <c r="E218" t="n">
-        <v>6900</v>
+        <v>6749</v>
       </c>
       <c r="F218" t="n">
-        <v>874466.7350708932</v>
+        <v>855320.4914256741</v>
       </c>
       <c r="G218" t="n">
         <v>125.4599990844727</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>857909.345</v>
+        <v>839136.33795</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G219" t="n">
         <v>124.3400001525879</v>
       </c>
       <c r="H219" t="n">
-        <v>584.7176006317139</v>
+        <v>573.4523966178895</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>-548.0615477752872</v>
+        <v>-539.1293168021366</v>
       </c>
     </row>
     <row r="220">
@@ -7468,16 +7468,16 @@
         <v>44420</v>
       </c>
       <c r="C220" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G220" t="n">
         <v>124.1900024414062</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G221" t="n">
         <v>125.7099990844727</v>
@@ -7535,13 +7535,13 @@
         <v>-1</v>
       </c>
       <c r="D222" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G222" t="n">
         <v>124.9599990844727</v>
@@ -7567,13 +7567,13 @@
         <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G223" t="n">
         <v>126.0599975585938</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G224" t="n">
         <v>127.0200004577637</v>
@@ -7631,13 +7631,13 @@
         <v>-1</v>
       </c>
       <c r="D225" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>866154.0248402565</v>
+        <v>847188.1662377659</v>
       </c>
       <c r="G225" t="n">
         <v>125</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>8872.061238991595</v>
+        <v>8661.649042754783</v>
       </c>
       <c r="E226" t="n">
-        <v>6810</v>
+        <v>6661</v>
       </c>
       <c r="F226" t="n">
-        <v>865570.0560433739</v>
+        <v>846615.4439608151</v>
       </c>
       <c r="G226" t="n">
         <v>125.7999992370605</v>
       </c>
       <c r="H226" t="n">
-        <v>583.9687968826295</v>
+        <v>572.7222769508362</v>
       </c>
       <c r="I226" t="n">
-        <v>857281.963601265</v>
+        <v>838526.5171950111</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>127.3716639450557</v>
+        <v>169.2707597385784</v>
       </c>
       <c r="E227" t="n">
-        <v>6879</v>
+        <v>6728</v>
       </c>
       <c r="F227" t="n">
-        <v>867431.6780184677</v>
+        <v>848435.4974137914</v>
       </c>
       <c r="G227" t="n">
         <v>126.0799980163574</v>
       </c>
       <c r="H227" t="n">
-        <v>45.1697119178772</v>
+        <v>45.01841592025757</v>
       </c>
       <c r="I227" t="n">
-        <v>866026.6531763115</v>
+        <v>847018.8954780273</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>127.3716639450557</v>
+        <v>29.92075714458431</v>
       </c>
       <c r="E228" t="n">
-        <v>6879</v>
+        <v>6729</v>
       </c>
       <c r="F228" t="n">
-        <v>868807.5095080307</v>
+        <v>849768.0582121311</v>
       </c>
       <c r="G228" t="n">
         <v>126.2800025939941</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I228" t="n">
-        <v>866026.6531763115</v>
+        <v>847158.2454806212</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>127.3716639450557</v>
+        <v>29.92075714458431</v>
       </c>
       <c r="E229" t="n">
-        <v>6879</v>
+        <v>6729</v>
       </c>
       <c r="F229" t="n">
-        <v>866193.4559191635</v>
+        <v>847211.0053556858</v>
       </c>
       <c r="G229" t="n">
         <v>125.8999977111816</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>866026.6531763115</v>
+        <v>847158.2454806212</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>127.3716639450557</v>
+        <v>29.92075714458431</v>
       </c>
       <c r="E230" t="n">
-        <v>6879</v>
+        <v>6729</v>
       </c>
       <c r="F230" t="n">
-        <v>857181.9827135971</v>
+        <v>838396.0317839085</v>
       </c>
       <c r="G230" t="n">
         <v>124.5900001525879</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>866026.6531763115</v>
+        <v>847158.2454806212</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>127.3716639450557</v>
+        <v>29.92075714458431</v>
       </c>
       <c r="E231" t="n">
-        <v>6879</v>
+        <v>6729</v>
       </c>
       <c r="F231" t="n">
-        <v>863097.900670903</v>
+        <v>844182.9502218663</v>
       </c>
       <c r="G231" t="n">
         <v>125.4499969482422</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>866026.6531763115</v>
+        <v>847158.2454806212</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>866910.1088469673</v>
+        <v>847910.5060172924</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>866910.1088469673</v>
+        <v>847910.5060172924</v>
       </c>
       <c r="G232" t="n">
         <v>126.0900001525879</v>
       </c>
       <c r="H232" t="n">
-        <v>590.3738666297913</v>
+        <v>579.0257666160584</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>756.0840067107929</v>
+        <v>722.3397795265773</v>
       </c>
     </row>
     <row r="233">
@@ -7884,25 +7884,25 @@
         <v>44439</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>866910.1088469673</v>
+        <v>8650.549965076807</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>6580</v>
       </c>
       <c r="F233" t="n">
-        <v>866910.1088469673</v>
+        <v>847337.3439409069</v>
       </c>
       <c r="G233" t="n">
         <v>127.4599990844727</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>573.162076385498</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>839259.9560522155</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G234" t="n">
         <v>128.1999969482422</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>576.0835879516602</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>3719.940279266448</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G235" t="n">
         <v>126.1400032043457</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G236" t="n">
         <v>125.1199989318848</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G237" t="n">
         <v>126.9799995422363</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G238" t="n">
         <v>127.2100028991699</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G239" t="n">
         <v>124.5900001525879</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G240" t="n">
         <v>123.0999984741211</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>866910.1088469673</v>
+        <v>851630.4462965588</v>
       </c>
       <c r="G241" t="n">
         <v>123.7099990844727</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>8812.148014005305</v>
+        <v>8711.177442951654</v>
       </c>
       <c r="E242" t="n">
-        <v>6953</v>
+        <v>6830</v>
       </c>
       <c r="F242" t="n">
-        <v>866325.6507453285</v>
+        <v>851055.0899490552</v>
       </c>
       <c r="G242" t="n">
         <v>123.3300018310547</v>
       </c>
       <c r="H242" t="n">
-        <v>584.458101638794</v>
+        <v>575.3563475036622</v>
       </c>
       <c r="I242" t="n">
-        <v>858097.9608329621</v>
+        <v>842919.2688536071</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,25 +8207,25 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="G243" t="n">
         <v>122.25</v>
       </c>
       <c r="H243" t="n">
-        <v>579.9525500000001</v>
+        <v>570.9305000000001</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-8673.663382962113</v>
+        <v>-8522.699353607139</v>
       </c>
     </row>
     <row r="244">
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="G244" t="n">
         <v>122.9200019836426</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="G245" t="n">
         <v>122.4200019836426</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="G246" t="n">
         <v>122.7799987792969</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>858236.4454640052</v>
+        <v>843107.7469429517</v>
       </c>
       <c r="G247" t="n">
         <v>119.4799995422363</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>8734.128121338603</v>
+        <v>8520.413110691561</v>
       </c>
       <c r="E248" t="n">
-        <v>7062</v>
+        <v>6938</v>
       </c>
       <c r="F248" t="n">
-        <v>857657.1416558845</v>
+        <v>842537.3867587629</v>
       </c>
       <c r="G248" t="n">
         <v>120.2099990844727</v>
       </c>
       <c r="H248" t="n">
-        <v>579.3038081207276</v>
+        <v>570.3601841888428</v>
       </c>
       <c r="I248" t="n">
-        <v>849502.3173426667</v>
+        <v>834587.3338322601</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="G249" t="n">
         <v>121.2299995422363</v>
       </c>
       <c r="H249" t="n">
-        <v>583.6257540603638</v>
+        <v>574.6062420944214</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>6040.313670545933</v>
+        <v>5931.796749681118</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="G250" t="n">
         <v>122.4600028991699</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>864276.7591345512</v>
+        <v>849039.5436926328</v>
       </c>
       <c r="G251" t="n">
         <v>121.9700012207031</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>8739.007307292097</v>
+        <v>8627.701950441497</v>
       </c>
       <c r="E252" t="n">
-        <v>7013</v>
+        <v>6889</v>
       </c>
       <c r="F252" t="n">
-        <v>863693.8362371932</v>
+        <v>848465.6908992635</v>
       </c>
       <c r="G252" t="n">
         <v>121.9099998474121</v>
       </c>
       <c r="H252" t="n">
-        <v>582.9228973579407</v>
+        <v>573.8527933692932</v>
       </c>
       <c r="I252" t="n">
-        <v>855537.7518272591</v>
+        <v>840411.8417421913</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>846710.3385223785</v>
+        <v>831781.249211347</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>846710.3385223785</v>
+        <v>831781.249211347</v>
       </c>
       <c r="G253" t="n">
         <v>119.5699996948242</v>
       </c>
       <c r="H253" t="n">
-        <v>573.0766447158813</v>
+        <v>564.1806367385865</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-17566.42061217269</v>
+        <v>-17258.29448128585</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>846710.3385223785</v>
+        <v>831781.249211347</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>846710.3385223785</v>
+        <v>831781.249211347</v>
       </c>
       <c r="G254" t="n">
         <v>118.3599967956543</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>8650.989869073417</v>
+        <v>8454.484922551492</v>
       </c>
       <c r="E255" t="n">
-        <v>7110</v>
+        <v>6985</v>
       </c>
       <c r="F255" t="n">
-        <v>846137.8963784728</v>
+        <v>831217.64131751</v>
       </c>
       <c r="G255" t="n">
         <v>117.7900009155273</v>
       </c>
       <c r="H255" t="n">
-        <v>572.4421439056397</v>
+        <v>563.6078938369751</v>
       </c>
       <c r="I255" t="n">
-        <v>838059.3486533051</v>
+        <v>823326.7642887954</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
